--- a/semestrovka2/testsResult/RemoveTest.xlsx
+++ b/semestrovka2/testsResult/RemoveTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectjava\Alg&amp;DataStr\sem2\testsResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{07C5A302-3B2F-45D5-8307-0EDF162A638D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F1C42FFF-0C36-47F2-9069-7164EA72E0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="672" windowWidth="17280" windowHeight="9960"/>
+    <workbookView xWindow="5316" yWindow="3576" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="RemoveTest" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,26 +924,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>443495</v>
+        <v>10845500</v>
       </c>
       <c r="B2">
-        <v>19000</v>
+        <v>107000</v>
       </c>
       <c r="E2">
         <f>AVERAGE(A2:A51)</f>
-        <v>91079.7</v>
+        <v>863368</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:B51)</f>
-        <v>18999.580000000002</v>
+        <v>106993.98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>172202</v>
+        <v>556400</v>
       </c>
       <c r="B3">
-        <v>19000</v>
+        <v>107000</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -951,394 +951,394 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>96997</v>
+        <v>412400</v>
       </c>
       <c r="B4">
-        <v>19000</v>
+        <v>107000</v>
       </c>
       <c r="E4" s="1">
         <f>E2/1000</f>
-        <v>91.079700000000003</v>
+        <v>863.36800000000005</v>
       </c>
       <c r="F4" s="1">
         <f>F2/1000</f>
-        <v>18.999580000000002</v>
+        <v>106.99397999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>73197</v>
+        <v>333900</v>
       </c>
       <c r="B5">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>69507</v>
+        <v>1444500</v>
       </c>
       <c r="B6">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>126701</v>
+        <v>183800</v>
       </c>
       <c r="B7">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>94399</v>
+        <v>1464900</v>
       </c>
       <c r="B8">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>62405</v>
+        <v>680000</v>
       </c>
       <c r="B9">
-        <v>19000</v>
+        <v>106971</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>67001</v>
+        <v>3319300</v>
       </c>
       <c r="B10">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>67802</v>
+        <v>332600</v>
       </c>
       <c r="B11">
-        <v>19000</v>
+        <v>106971</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>69500</v>
+        <v>312400</v>
       </c>
       <c r="B12">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>411396</v>
+        <v>322500</v>
       </c>
       <c r="B13">
-        <v>18995</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>97298</v>
+        <v>336200</v>
       </c>
       <c r="B14">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>68998</v>
+        <v>3675700</v>
       </c>
       <c r="B15">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>74606</v>
+        <v>2841700</v>
       </c>
       <c r="B16">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>72800</v>
+        <v>2723200</v>
       </c>
       <c r="B17">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>73096</v>
+        <v>1738300</v>
       </c>
       <c r="B18">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>106594</v>
+        <v>1738800</v>
       </c>
       <c r="B19">
-        <v>19000</v>
+        <v>106979</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>79896</v>
+        <v>177500</v>
       </c>
       <c r="B20">
-        <v>18998</v>
+        <v>106973</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>67797</v>
+        <v>181500</v>
       </c>
       <c r="B21">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>68100</v>
+        <v>187500</v>
       </c>
       <c r="B22">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>69397</v>
+        <v>1363700</v>
       </c>
       <c r="B23">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>67802</v>
+        <v>162500</v>
       </c>
       <c r="B24">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>69599</v>
+        <v>152200</v>
       </c>
       <c r="B25">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>69702</v>
+        <v>194100</v>
       </c>
       <c r="B26">
-        <v>19000</v>
+        <v>106983</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>66403</v>
+        <v>183800</v>
       </c>
       <c r="B27">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>70201</v>
+        <v>153000</v>
       </c>
       <c r="B28">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>69202</v>
+        <v>151800</v>
       </c>
       <c r="B29">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>70000</v>
+        <v>157200</v>
       </c>
       <c r="B30">
-        <v>19000</v>
+        <v>106983</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>66496</v>
+        <v>154500</v>
       </c>
       <c r="B31">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>69297</v>
+        <v>154700</v>
       </c>
       <c r="B32">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>68498</v>
+        <v>156900</v>
       </c>
       <c r="B33">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>66295</v>
+        <v>155500</v>
       </c>
       <c r="B34">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>67900</v>
+        <v>154600</v>
       </c>
       <c r="B35">
-        <v>18996</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>67302</v>
+        <v>157300</v>
       </c>
       <c r="B36">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>66399</v>
+        <v>156900</v>
       </c>
       <c r="B37">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>66197</v>
+        <v>156500</v>
       </c>
       <c r="B38">
-        <v>19000</v>
+        <v>106970</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>68400</v>
+        <v>156900</v>
       </c>
       <c r="B39">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>66400</v>
+        <v>152700</v>
       </c>
       <c r="B40">
-        <v>19000</v>
+        <v>106965</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>142605</v>
+        <v>156300</v>
       </c>
       <c r="B41">
-        <v>18995</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>94604</v>
+        <v>153800</v>
       </c>
       <c r="B42">
-        <v>18995</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>65402</v>
+        <v>155300</v>
       </c>
       <c r="B43">
-        <v>19000</v>
+        <v>106971</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>69902</v>
+        <v>1344400</v>
       </c>
       <c r="B44">
-        <v>19000</v>
+        <v>106964</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>67597</v>
+        <v>161700</v>
       </c>
       <c r="B45">
-        <v>19000</v>
+        <v>106969</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>69597</v>
+        <v>156800</v>
       </c>
       <c r="B46">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>68904</v>
+        <v>149000</v>
       </c>
       <c r="B47">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>71396</v>
+        <v>1316700</v>
       </c>
       <c r="B48">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>74899</v>
+        <v>157000</v>
       </c>
       <c r="B49">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>71304</v>
+        <v>1356000</v>
       </c>
       <c r="B50">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>68498</v>
+        <v>178000</v>
       </c>
       <c r="B51">
-        <v>19000</v>
+        <v>107000</v>
       </c>
     </row>
   </sheetData>
